--- a/2022/Symphony/JUNE/04.06.2022/MC Bank Statement June-2022.xlsx
+++ b/2022/Symphony/JUNE/04.06.2022/MC Bank Statement June-2022.xlsx
@@ -9106,11 +9106,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A2:Q2"/>
@@ -9125,6 +9120,11 @@
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
@@ -33620,7 +33620,7 @@
   <dimension ref="A1:Y216"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
